--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/170.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/170.xlsx
@@ -479,13 +479,13 @@
         <v>-9.330098724067593</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.74609588257244</v>
+        <v>-13.83622329533488</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.377771203388135</v>
+        <v>-1.323320315869396</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.98495539785809</v>
+        <v>-11.10719822949129</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.534934133388161</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.05441961449508</v>
+        <v>-14.14009564429134</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.209731496414581</v>
+        <v>-1.156432731545914</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.91258114774903</v>
+        <v>-11.03550477913</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.755831391596965</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.59066724658934</v>
+        <v>-14.66040994382722</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.05931402906599</v>
+        <v>-1.00758634053833</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.57197179701868</v>
+        <v>-10.68815289243616</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.925224060234855</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.21708156835457</v>
+        <v>-15.28184919051259</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.009890585838474</v>
+        <v>-0.9540650065213542</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.56562203014045</v>
+        <v>-10.67672331205533</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.01354759332445</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.84225212134983</v>
+        <v>-15.8935739484894</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8007148633362167</v>
+        <v>-0.749510866922226</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.13814525005525</v>
+        <v>-10.25238868465215</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.980170483927941</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.56329760805505</v>
+        <v>-16.61094049809609</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7234702765700329</v>
+        <v>-0.6674875896188123</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.01113682018766</v>
+        <v>-10.12119071787521</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.805929085122436</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.22541463966966</v>
+        <v>-17.27320154504196</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5784992072036002</v>
+        <v>-0.5240614119877032</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.546674284574589</v>
+        <v>-9.66310413374606</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.47823916600834</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.03365486330078</v>
+        <v>-18.07697729340405</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.603165105757412</v>
+        <v>-0.5495128487120187</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.368553504412906</v>
+        <v>-9.484734599830384</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.994987647634927</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.64033908468353</v>
+        <v>-18.67449690279759</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4575525135517347</v>
+        <v>-0.3946047214887158</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.071253491482992</v>
+        <v>-9.186714510244174</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.374604795011059</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.30026970172357</v>
+        <v>-19.33000232147713</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2296024287744421</v>
+        <v>-0.1669557596767829</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.711895963083293</v>
+        <v>-8.825851367017679</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.65427114933507</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.91236104417995</v>
+        <v>-19.94090226437491</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4377962285635701</v>
+        <v>-0.3704232381400477</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.182744359129252</v>
+        <v>-8.297157993663095</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.881218293249432</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.71694851531822</v>
+        <v>-20.73243670957998</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2070312986753064</v>
+        <v>-0.1440311374009206</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.558228421276077</v>
+        <v>-7.67506413183564</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.120979127127919</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.46247660833747</v>
+        <v>-21.48430147717463</v>
       </c>
       <c r="F14" t="n">
-        <v>0.009541574932526223</v>
+        <v>0.0786820262396816</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.279074340084793</v>
+        <v>-7.394221143577774</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.446524686922958</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.32182918226269</v>
+        <v>-22.34553934270905</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1717682994443539</v>
+        <v>0.2433177344743869</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.630926795602303</v>
+        <v>-6.74020824742219</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.924090466925795</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.35449766120667</v>
+        <v>-23.38386369648066</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4470994282058531</v>
+        <v>0.5189238015955624</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.224279869338291</v>
+        <v>-6.346051378069185</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.612147448569583</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.04681863547714</v>
+        <v>-24.07319962570323</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5919919437552356</v>
+        <v>0.6621666869868873</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.026690834850961</v>
+        <v>-6.156514109829517</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.550751066726011</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.97152798518826</v>
+        <v>-24.99019760904056</v>
       </c>
       <c r="F18" t="n">
-        <v>0.856796861031987</v>
+        <v>0.9357696317732787</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.494999324145623</v>
+        <v>-5.625228460512273</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.750825482818424</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.80536366087495</v>
+        <v>-25.81624336453642</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9460209048983501</v>
+        <v>1.02687896724885</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.3500937162934</v>
+        <v>-5.490521756573753</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.199126730168266</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.55098340001409</v>
+        <v>-26.56064551951128</v>
       </c>
       <c r="F20" t="n">
-        <v>1.094566172940574</v>
+        <v>1.17478271245183</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.038221970300643</v>
+        <v>-5.178741656700889</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.857352503322339</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.18398315010871</v>
+        <v>-27.19996885187845</v>
       </c>
       <c r="F21" t="n">
-        <v>1.332846084659989</v>
+        <v>1.417343807200489</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.764252441034683</v>
+        <v>-4.910022140874461</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.661794370410502</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.78671349603325</v>
+        <v>-27.79413683174451</v>
       </c>
       <c r="F22" t="n">
-        <v>1.433473524301495</v>
+        <v>1.521715645454729</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.145994623939853</v>
+        <v>-4.279968158919236</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-7.536586023582329</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.19411977586208</v>
+        <v>-28.20456743352978</v>
       </c>
       <c r="F23" t="n">
-        <v>1.609119859226092</v>
+        <v>1.700818348329541</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.115306266078847</v>
+        <v>-4.259072843583841</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-8.405594822191436</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.5120663503734</v>
+        <v>-28.51853394797721</v>
       </c>
       <c r="F24" t="n">
-        <v>1.500165714977248</v>
+        <v>1.589010082061201</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.873884201677418</v>
+        <v>-4.0057236912936</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.198223760923414</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.78981955516062</v>
+        <v>-28.79987444374306</v>
       </c>
       <c r="F25" t="n">
-        <v>1.800817357434645</v>
+        <v>1.888038278966224</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.650032007689586</v>
+        <v>-3.770350270805049</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.85595713729961</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.79817244437364</v>
+        <v>-28.80978531699425</v>
       </c>
       <c r="F26" t="n">
-        <v>1.712679974704145</v>
+        <v>1.79963905017889</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.780195682542027</v>
+        <v>-3.895643609000367</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.33874233323179</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.95768906219723</v>
+        <v>-28.97031004213665</v>
       </c>
       <c r="F27" t="n">
-        <v>1.633157327243501</v>
+        <v>1.725588985306087</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.489389451821607</v>
+        <v>-3.600804949004696</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.62504916670104</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.78085132771403</v>
+        <v>-28.79145609301583</v>
       </c>
       <c r="F28" t="n">
-        <v>1.861094319717952</v>
+        <v>1.949414994688236</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.572486297958043</v>
+        <v>-3.672825706937031</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.70986522300928</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.79983516683454</v>
+        <v>-28.8048757034286</v>
       </c>
       <c r="F29" t="n">
-        <v>1.712732343915512</v>
+        <v>1.799796157812991</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.521714347537829</v>
+        <v>-3.618780680806386</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.6060037464</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.59304224344947</v>
+        <v>-28.60271745524951</v>
       </c>
       <c r="F30" t="n">
-        <v>1.760519249287812</v>
+        <v>1.852112999968528</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.501028509047902</v>
+        <v>-3.59757115020279</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-10.33919959375289</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.18909233157085</v>
+        <v>-28.19426379119334</v>
       </c>
       <c r="F31" t="n">
-        <v>1.647742152609184</v>
+        <v>1.737948119188677</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.832735093845873</v>
+        <v>-3.923281460299251</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.941532972276187</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.12487458613219</v>
+        <v>-28.12094689527967</v>
       </c>
       <c r="F32" t="n">
-        <v>1.640148616960983</v>
+        <v>1.727186246252778</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.056836041587698</v>
+        <v>-4.150092514729313</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.450994311372451</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.54953333775254</v>
+        <v>-27.54495103175793</v>
       </c>
       <c r="F33" t="n">
-        <v>1.574687102752353</v>
+        <v>1.660991563085011</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.37018721780157</v>
+        <v>-4.453755386840307</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.906183342681629</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.95903120268217</v>
+        <v>-26.95718518798148</v>
       </c>
       <c r="F34" t="n">
-        <v>1.65491673456645</v>
+        <v>1.740383287517238</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.301452627882508</v>
+        <v>-4.375895461840563</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.340774845176371</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.71741275373811</v>
+        <v>-26.71958607600984</v>
       </c>
       <c r="F35" t="n">
-        <v>1.454395024242573</v>
+        <v>1.538447608486455</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.606123607312315</v>
+        <v>-4.682805225056305</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.784233846218492</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.82699214516948</v>
+        <v>-25.83131260510725</v>
       </c>
       <c r="F36" t="n">
-        <v>1.38306815836085</v>
+        <v>1.464816497304587</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.786653371196876</v>
+        <v>-4.866948464525183</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.256555257511031</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.28419836165436</v>
+        <v>-25.30195152430774</v>
       </c>
       <c r="F37" t="n">
-        <v>1.280188842630566</v>
+        <v>1.360208997599196</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.017863439381759</v>
+        <v>-5.099952178199382</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.768280943311846</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.85054201462787</v>
+        <v>-24.85573965885603</v>
       </c>
       <c r="F38" t="n">
-        <v>1.26671686300643</v>
+        <v>1.34483863406301</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.16252029347999</v>
+        <v>-5.245080355199915</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.326646972315919</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.3334615138939</v>
+        <v>-24.35104447661033</v>
       </c>
       <c r="F39" t="n">
-        <v>1.189485368543088</v>
+        <v>1.262632064519812</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.303760056536531</v>
+        <v>-5.382497165826671</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.93133804850361</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.87225896168841</v>
+        <v>-23.88892546320593</v>
       </c>
       <c r="F40" t="n">
-        <v>1.164374331692658</v>
+        <v>1.243032887165748</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.415869445770231</v>
+        <v>-5.495758677710444</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.575784588303852</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.07730742544165</v>
+        <v>-23.09176132777891</v>
       </c>
       <c r="F41" t="n">
-        <v>1.286761178657113</v>
+        <v>1.357773829270635</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.533621617528715</v>
+        <v>-5.613550126377453</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.254672614249216</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.65560435090965</v>
+        <v>-22.67516425135519</v>
       </c>
       <c r="F42" t="n">
-        <v>1.402575689595022</v>
+        <v>1.472148186895954</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.621628077230798</v>
+        <v>-5.699828402104428</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.960063741058096</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.81595569276123</v>
+        <v>-21.83813405377512</v>
       </c>
       <c r="F43" t="n">
-        <v>1.588983897455517</v>
+        <v>1.658582579362133</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.607436020950368</v>
+        <v>-5.683161900586911</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.682644122001622</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.52014820235527</v>
+        <v>-21.55001174513725</v>
       </c>
       <c r="F44" t="n">
-        <v>1.560756892528756</v>
+        <v>1.628365544403429</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.810824945596582</v>
+        <v>-5.884364410658557</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.419589909008382</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.97853272609591</v>
+        <v>-21.00626222351469</v>
       </c>
       <c r="F45" t="n">
-        <v>1.613387949952495</v>
+        <v>1.684924292679686</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.935934991552116</v>
+        <v>-6.006227565509343</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.1713876281715</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.44530941595809</v>
+        <v>-20.4793886802551</v>
       </c>
       <c r="F46" t="n">
-        <v>1.776910812445653</v>
+        <v>1.848970847286514</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.849250854437048</v>
+        <v>-5.92224044277967</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.940055213258466</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.89238219004347</v>
+        <v>-19.93417282071426</v>
       </c>
       <c r="F47" t="n">
-        <v>1.671858174443643</v>
+        <v>1.740330918305871</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.236246234135629</v>
+        <v>-6.31006063755728</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.733917241976656</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.40381672489878</v>
+        <v>-19.45275575292115</v>
       </c>
       <c r="F48" t="n">
-        <v>1.686966691922995</v>
+        <v>1.760781095344647</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.255321719376023</v>
+        <v>-6.332540121536524</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.564201464767209</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.73613546457644</v>
+        <v>-18.78248221663614</v>
       </c>
       <c r="F49" t="n">
-        <v>1.714303420256519</v>
+        <v>1.785944501406444</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.716288610130356</v>
+        <v>-6.792498904972044</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.440089284008647</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.13500237959858</v>
+        <v>-18.19344641948405</v>
       </c>
       <c r="F50" t="n">
-        <v>1.70718120751062</v>
+        <v>1.776072905063783</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.714835364514925</v>
+        <v>-6.791294413110605</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.372273160892403</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.27151263797538</v>
+        <v>-17.33465681458102</v>
       </c>
       <c r="F51" t="n">
-        <v>1.745908239316446</v>
+        <v>1.814564275418457</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.066311326603903</v>
+        <v>-7.146606419932209</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.371374641958063</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.90376294345414</v>
+        <v>-16.97378057905169</v>
       </c>
       <c r="F52" t="n">
-        <v>1.639127417339328</v>
+        <v>1.708228591737958</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.978121574662036</v>
+        <v>-7.063771419852608</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.440936245700733</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.32093289784902</v>
+        <v>-16.40108397584606</v>
       </c>
       <c r="F53" t="n">
-        <v>1.783666440711984</v>
+        <v>1.844912233405579</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.084902396639154</v>
+        <v>-7.169465580693863</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.581783586943504</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.96785967481335</v>
+        <v>-16.04878319867806</v>
       </c>
       <c r="F54" t="n">
-        <v>1.521977491511563</v>
+        <v>1.584872914363215</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.467119085800505</v>
+        <v>-7.553030777047911</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.795079472467135</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.35054450352312</v>
+        <v>-15.44141817754754</v>
       </c>
       <c r="F55" t="n">
-        <v>1.596603617709402</v>
+        <v>1.660808270845227</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.670900779531971</v>
+        <v>-7.749192750525493</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.075842461156597</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.96875986035555</v>
+        <v>-15.05677941236047</v>
       </c>
       <c r="F56" t="n">
-        <v>1.471022248851565</v>
+        <v>1.528235612269908</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.91331785894937</v>
+        <v>-7.988140369689836</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.417250020094915</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.27670073214191</v>
+        <v>-14.37055945121424</v>
       </c>
       <c r="F57" t="n">
-        <v>1.386262680254231</v>
+        <v>1.442271551811135</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.267962158326046</v>
+        <v>-8.333345118717627</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.813643036009832</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.04495387954052</v>
+        <v>-14.14322470467051</v>
       </c>
       <c r="F58" t="n">
-        <v>1.265996786350135</v>
+        <v>1.321848550272939</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.275136740283312</v>
+        <v>-8.348846405282231</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.2520413277891</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.52246625773291</v>
+        <v>-13.62224269768971</v>
       </c>
       <c r="F59" t="n">
-        <v>1.313076707368982</v>
+        <v>1.371416008831714</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.479965818242118</v>
+        <v>-8.546121224501359</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.715276343314518</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.37817598811425</v>
+        <v>-13.47792624346536</v>
       </c>
       <c r="F60" t="n">
-        <v>1.204044009303088</v>
+        <v>1.257683174045639</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.381721177717804</v>
+        <v>-8.45048195224255</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.188326700742038</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.01862207517193</v>
+        <v>-13.12880689588789</v>
       </c>
       <c r="F61" t="n">
-        <v>1.124259515785609</v>
+        <v>1.177230973083232</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.656358414428691</v>
+        <v>-8.711961424597503</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.654302957504614</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.67805200135011</v>
+        <v>-12.79720504951266</v>
       </c>
       <c r="F62" t="n">
-        <v>1.13625206518863</v>
+        <v>1.18767863075093</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.933509373285192</v>
+        <v>-8.995789457903282</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.097556324269263</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.24084764025351</v>
+        <v>-12.36106116494623</v>
       </c>
       <c r="F63" t="n">
-        <v>1.104843630671329</v>
+        <v>1.153429166516974</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.904418276370876</v>
+        <v>-8.969290636951628</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.506082783078234</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.96029268265816</v>
+        <v>-12.08748440476553</v>
       </c>
       <c r="F64" t="n">
-        <v>1.04037713147867</v>
+        <v>1.089250697986833</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.08079778025461</v>
+        <v>-9.145853433075146</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.866238216852921</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.70352643932623</v>
+        <v>-11.83202739171777</v>
       </c>
       <c r="F65" t="n">
-        <v>1.053836018799964</v>
+        <v>1.098349848461833</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.267114341995214</v>
+        <v>-9.331855779547549</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.167239555518201</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.47790678445476</v>
+        <v>-11.61002121243062</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8530393701164116</v>
+        <v>0.8991635530278126</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.249361179341832</v>
+        <v>-9.318252876894995</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.4046876090897</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.28349917955797</v>
+        <v>-11.41507682311732</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8163940144624203</v>
+        <v>0.8639976275949364</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.332327102449851</v>
+        <v>-9.399569169844955</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.57295779845977</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.13182485113657</v>
+        <v>-11.2722136145084</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7578583284570631</v>
+        <v>0.799635866825011</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.24509308861543</v>
+        <v>-9.316668708251147</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.667468927743021</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.96313052902093</v>
+        <v>-11.10035095510506</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5240167074009938</v>
+        <v>0.5693684444447329</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.207073041163058</v>
+        <v>-9.276593169252623</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.687819729798502</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.85277550836802</v>
+        <v>-10.99354394852226</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6559347508342257</v>
+        <v>0.7027135488877129</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.136021113641011</v>
+        <v>-9.209115440406366</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.634732403630126</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.69947773439425</v>
+        <v>-10.83639703751303</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5670511068417474</v>
+        <v>0.6154140735390835</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.79969294593991</v>
+        <v>-8.867262320906057</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.513332812879916</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.64420203179649</v>
+        <v>-10.77779588999346</v>
       </c>
       <c r="F72" t="n">
-        <v>0.577773702869121</v>
+        <v>0.6297239605450901</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.640582189504412</v>
+        <v>-8.711922147688977</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.332882862401197</v>
       </c>
       <c r="E73" t="n">
-        <v>-10.6541521819562</v>
+        <v>-10.78752347100486</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4161492242880127</v>
+        <v>0.4678376359071472</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.581967949682005</v>
+        <v>-8.658034229192433</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.100832640035412</v>
       </c>
       <c r="E74" t="n">
-        <v>-10.78473481049957</v>
+        <v>-10.9132619474968</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5204948779365695</v>
+        <v>0.571515582110776</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.359974862697698</v>
+        <v>-8.43538652706604</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.826918863227216</v>
       </c>
       <c r="E75" t="n">
-        <v>-10.84761714104839</v>
+        <v>-10.97525400145237</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3147493387788443</v>
+        <v>0.3727351480648491</v>
       </c>
       <c r="G75" t="n">
-        <v>-8.176865915153316</v>
+        <v>-8.255459009112199</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.524276747103606</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.22196535620186</v>
+        <v>-11.34721941748865</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4215956222701708</v>
+        <v>0.4801444005783698</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.934972527849586</v>
+        <v>-8.012766991335122</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.203291203748142</v>
       </c>
       <c r="E77" t="n">
-        <v>-11.58326054542213</v>
+        <v>-11.71326711264047</v>
       </c>
       <c r="F77" t="n">
-        <v>0.3298840408638797</v>
+        <v>0.3871890504021147</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.772287572738298</v>
+        <v>-7.844845115087144</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.873788806053792</v>
       </c>
       <c r="E78" t="n">
-        <v>-12.15247459607185</v>
+        <v>-12.28266445552998</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2765852759952128</v>
+        <v>0.3412743443361814</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.515730806251834</v>
+        <v>-7.592412423995823</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.545203974197267</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.57717580795461</v>
+        <v>-12.70229894621298</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1896916620346769</v>
+        <v>0.2513171315106815</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.470811115201871</v>
+        <v>-7.547623655974278</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.222849322904171</v>
       </c>
       <c r="E80" t="n">
-        <v>-13.08141275960084</v>
+        <v>-13.20915435842756</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3836279440291652</v>
+        <v>0.4543001947688025</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.150416280059151</v>
+        <v>-7.233657141526845</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.911816046845857</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.93775410387246</v>
+        <v>-14.06730244049134</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2361038756085958</v>
+        <v>0.3028615277985571</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.140125730025554</v>
+        <v>-7.219491269852098</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.617880816543103</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.60445344148168</v>
+        <v>-14.73161897898336</v>
       </c>
       <c r="F82" t="n">
-        <v>0.3057549267265785</v>
+        <v>0.378233915258374</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.977178928857432</v>
+        <v>-7.061519543763831</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.343781648841268</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.35568977853992</v>
+        <v>-15.48646879162592</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1509384456231678</v>
+        <v>0.2279080940296753</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.698928216562227</v>
+        <v>-6.786070584276756</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.091526739852151</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.46517079825631</v>
+        <v>-16.59301713550577</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1466572625939233</v>
+        <v>0.2250670643130208</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.509678978985077</v>
+        <v>-6.593116224995398</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.865030707720127</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.28418598712617</v>
+        <v>-17.41088020172555</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1869291861350727</v>
+        <v>0.2704449859624433</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.23868140246419</v>
+        <v>-6.32743412342825</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.668282165259309</v>
       </c>
       <c r="E86" t="n">
-        <v>-18.29574967388929</v>
+        <v>-18.42867582464134</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1154583049220901</v>
+        <v>0.2047216256969784</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.934651945873627</v>
+        <v>-6.024648435607651</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-4.505196275092507</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.3245035542836</v>
+        <v>-19.45578007487759</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1440518943284199</v>
+        <v>0.2345982607817973</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.521930191091054</v>
+        <v>-5.618197893886266</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-4.382228335654984</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.63679743732117</v>
+        <v>-20.76816560403505</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2742155691808604</v>
+        <v>0.3602319988510007</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.328988924112537</v>
+        <v>-5.42633019574077</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.307820958546762</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.18534192513769</v>
+        <v>-22.31955112156822</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0746234123587465</v>
+        <v>0.1649733942694981</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.985315974517228</v>
+        <v>-5.082853630688087</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.287966168966757</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.69475351976029</v>
+        <v>-23.82943403909313</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.1034057216830446</v>
+        <v>-0.01424713933089004</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.729400730870008</v>
+        <v>-4.82824761732504</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.328445112422055</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.1508925341199</v>
+        <v>-25.2795375018427</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.1381003242136186</v>
+        <v>-0.05036880287121227</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.759002427595151</v>
+        <v>-4.861135482063456</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.438316479084136</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.8292995738235</v>
+        <v>-26.96383607782508</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3054199545308778</v>
+        <v>-0.2159078800019967</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.488463081673723</v>
+        <v>-4.582413446865949</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.621476274325031</v>
       </c>
       <c r="E93" t="n">
-        <v>-28.80141933547839</v>
+        <v>-28.93111168742852</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2813563019077853</v>
+        <v>-0.1922239041613142</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.496043525019083</v>
+        <v>-4.594484550086022</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.880041893342717</v>
       </c>
       <c r="E94" t="n">
-        <v>-30.93757255943725</v>
+        <v>-31.06877052621419</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2611941555315271</v>
+        <v>-0.1769320944421782</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.567632236957641</v>
+        <v>-4.665601939122277</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.217407505561756</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.12778390182961</v>
+        <v>-33.25756789989963</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6468672126430937</v>
+        <v>-0.5601699832251836</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.739913850051915</v>
+        <v>-4.832332415811659</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.637059353087039</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.24631488616351</v>
+        <v>-35.3722890241066</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.7409746854694207</v>
+        <v>-0.6634420680407188</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.892570101186441</v>
+        <v>-4.977552238932084</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.124466783265007</v>
       </c>
       <c r="E97" t="n">
-        <v>-37.53575279179331</v>
+        <v>-37.66278740626657</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.031126301047754</v>
+        <v>-0.9546148832407066</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.064013806898843</v>
+        <v>-5.156052695876178</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.696357351082022</v>
       </c>
       <c r="E98" t="n">
-        <v>-39.99583577266216</v>
+        <v>-40.11760728139306</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.333990542685403</v>
+        <v>-1.254350064499183</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.352581253833328</v>
+        <v>-5.436646930380051</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.317104160296639</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.37092352348252</v>
+        <v>-42.49421373934306</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.212402326194293</v>
+        <v>-1.138417722835699</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.704410708099032</v>
+        <v>-5.790584245403273</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.016385675652975</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.91156344373652</v>
+        <v>-45.03520715177378</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.36499311581461</v>
+        <v>-1.287028452392132</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.907184294511685</v>
+        <v>-5.991524909418085</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.715788780645557</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.37536463861242</v>
+        <v>-47.50270037605105</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.555329014527624</v>
+        <v>-1.468540138989822</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.306551900395697</v>
+        <v>-6.385171178960262</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.508330695123623</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.72298473807085</v>
+        <v>-49.84971822957876</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.642366643819419</v>
+        <v>-1.553915045820717</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.598353146132088</v>
+        <v>-6.677980532015466</v>
       </c>
     </row>
   </sheetData>
